--- a/розрахунок вартості шаблон.xlsx
+++ b/розрахунок вартості шаблон.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\7_семестр\курсавая\term_paper_3d_grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF721E96-D606-4348-8AF8-A7743B68286B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45E97EE-A5CC-4512-9E92-B1C260A0673D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Магістр (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="5-й курс (магістр)" sheetId="4" r:id="rId1"/>
+    <sheet name="6-й курс (магістр)" sheetId="5" r:id="rId2"/>
+    <sheet name="загальна вартість" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Контингент студентів</t>
   </si>
@@ -111,14 +113,17 @@
   <si>
     <t>добавки</t>
   </si>
+  <si>
+    <t>вартість бюджету</t>
+  </si>
+  <si>
+    <t>вартість контракту</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,44 +176,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -219,6 +232,1744 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'загальна вартість'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вартість року навчання</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'загальна вартість'!$B$3:$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A693-4ED6-8043-7C85E98692E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>контракт</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'загальна вартість'!$I$3:$I$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A693-4ED6-8043-7C85E98692E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>бюджет</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'загальна вартість'!$H$3:$H$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>70000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A693-4ED6-8043-7C85E98692E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="92807535"/>
+        <c:axId val="99410175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92807535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99410175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99410175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92807535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B71F02D-16BB-4DD1-8CD2-FB3377275437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,187 +2293,3565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
+      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="4.42578125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="6" style="2" customWidth="1"/>
-    <col min="8" max="13" width="6" customWidth="1"/>
-    <col min="14" max="25" width="5.7109375" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="25" width="5.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-    </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097DE100-1A72-44D2-B34E-8D802EAD06D6}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="25" width="5.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41ECE9A-CF81-4A99-9873-07B387EA162D}">
+  <dimension ref="A1:I92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f>G3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>('5-й курс (магістр)'!Z4+'6-й курс (магістр)'!Z4)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f>('5-й курс (магістр)'!AA4+'6-й курс (магістр)'!AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f>('5-й курс (магістр)'!AB4+'6-й курс (магістр)'!AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f>E3/A3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="0">F3/$G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>70000</v>
+      </c>
+      <c r="I3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B67" si="1">G4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>('5-й курс (магістр)'!Z5+'6-й курс (магістр)'!Z5)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f>('5-й курс (магістр)'!AA5+'6-й курс (магістр)'!AA5)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f>('5-й курс (магістр)'!AB5+'6-й курс (магістр)'!AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F67" si="2">E4/A4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>70000</v>
+      </c>
+      <c r="I4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <f>('5-й курс (магістр)'!Z6+'6-й курс (магістр)'!Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>('5-й курс (магістр)'!AA6+'6-й курс (магістр)'!AA6)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f>('5-й курс (магістр)'!AB6+'6-й курс (магістр)'!AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>70000</v>
+      </c>
+      <c r="I5">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>('5-й курс (магістр)'!Z7+'6-й курс (магістр)'!Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f>('5-й курс (магістр)'!AA7+'6-й курс (магістр)'!AA7)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f>('5-й курс (магістр)'!AB7+'6-й курс (магістр)'!AB7)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>70000</v>
+      </c>
+      <c r="I6">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>('5-й курс (магістр)'!Z8+'6-й курс (магістр)'!Z8)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>('5-й курс (магістр)'!AA8+'6-й курс (магістр)'!AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f>('5-й курс (магістр)'!AB8+'6-й курс (магістр)'!AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>70000</v>
+      </c>
+      <c r="I7">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f>('5-й курс (магістр)'!Z9+'6-й курс (магістр)'!Z9)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f>('5-й курс (магістр)'!AA9+'6-й курс (магістр)'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f>('5-й курс (магістр)'!AB9+'6-й курс (магістр)'!AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>70000</v>
+      </c>
+      <c r="I8">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f>('5-й курс (магістр)'!Z10+'6-й курс (магістр)'!Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f>('5-й курс (магістр)'!AA10+'6-й курс (магістр)'!AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f>('5-й курс (магістр)'!AB10+'6-й курс (магістр)'!AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>70000</v>
+      </c>
+      <c r="I9">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f>('5-й курс (магістр)'!Z11+'6-й курс (магістр)'!Z11)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f>('5-й курс (магістр)'!AA11+'6-й курс (магістр)'!AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f>('5-й курс (магістр)'!AB11+'6-й курс (магістр)'!AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>70000</v>
+      </c>
+      <c r="I10">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f>('5-й курс (магістр)'!Z12+'6-й курс (магістр)'!Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f>('5-й курс (магістр)'!AA12+'6-й курс (магістр)'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f>('5-й курс (магістр)'!AB12+'6-й курс (магістр)'!AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>70000</v>
+      </c>
+      <c r="I11">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f>('5-й курс (магістр)'!Z13+'6-й курс (магістр)'!Z13)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f>('5-й курс (магістр)'!AA13+'6-й курс (магістр)'!AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f>('5-й курс (магістр)'!AB13+'6-й курс (магістр)'!AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>70000</v>
+      </c>
+      <c r="I12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f>('5-й курс (магістр)'!Z14+'6-й курс (магістр)'!Z14)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <f>('5-й курс (магістр)'!AA14+'6-й курс (магістр)'!AA14)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f>('5-й курс (магістр)'!AB14+'6-й курс (магістр)'!AB14)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>70000</v>
+      </c>
+      <c r="I13">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f>('5-й курс (магістр)'!Z15+'6-й курс (магістр)'!Z15)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f>('5-й курс (магістр)'!AA15+'6-й курс (магістр)'!AA15)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f>('5-й курс (магістр)'!AB15+'6-й курс (магістр)'!AB15)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>70000</v>
+      </c>
+      <c r="I14">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f>('5-й курс (магістр)'!Z16+'6-й курс (магістр)'!Z16)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f>('5-й курс (магістр)'!AA16+'6-й курс (магістр)'!AA16)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>('5-й курс (магістр)'!AB16+'6-й курс (магістр)'!AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>70000</v>
+      </c>
+      <c r="I15">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <f>('5-й курс (магістр)'!Z17+'6-й курс (магістр)'!Z17)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f>('5-й курс (магістр)'!AA17+'6-й курс (магістр)'!AA17)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>('5-й курс (магістр)'!AB17+'6-й курс (магістр)'!AB17)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>70000</v>
+      </c>
+      <c r="I16">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f>('5-й курс (магістр)'!Z18+'6-й курс (магістр)'!Z18)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f>('5-й курс (магістр)'!AA18+'6-й курс (магістр)'!AA18)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f>('5-й курс (магістр)'!AB18+'6-й курс (магістр)'!AB18)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>70000</v>
+      </c>
+      <c r="I17">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f>('5-й курс (магістр)'!Z19+'6-й курс (магістр)'!Z19)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f>('5-й курс (магістр)'!AA19+'6-й курс (магістр)'!AA19)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <f>('5-й курс (магістр)'!AB19+'6-й курс (магістр)'!AB19)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>70000</v>
+      </c>
+      <c r="I18">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f>('5-й курс (магістр)'!Z20+'6-й курс (магістр)'!Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f>('5-й курс (магістр)'!AA20+'6-й курс (магістр)'!AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f>('5-й курс (магістр)'!AB20+'6-й курс (магістр)'!AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>70000</v>
+      </c>
+      <c r="I19">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <f>('5-й курс (магістр)'!Z21+'6-й курс (магістр)'!Z21)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <f>('5-й курс (магістр)'!AA21+'6-й курс (магістр)'!AA21)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <f>('5-й курс (магістр)'!AB21+'6-й курс (магістр)'!AB21)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>70000</v>
+      </c>
+      <c r="I20">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <f>('5-й курс (магістр)'!Z22+'6-й курс (магістр)'!Z22)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <f>('5-й курс (магістр)'!AA22+'6-й курс (магістр)'!AA22)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f>('5-й курс (магістр)'!AB22+'6-й курс (магістр)'!AB22)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>70000</v>
+      </c>
+      <c r="I21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <f>('5-й курс (магістр)'!Z23+'6-й курс (магістр)'!Z23)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <f>('5-й курс (магістр)'!AA23+'6-й курс (магістр)'!AA23)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <f>('5-й курс (магістр)'!AB23+'6-й курс (магістр)'!AB23)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>70000</v>
+      </c>
+      <c r="I22">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <f>('5-й курс (магістр)'!Z24+'6-й курс (магістр)'!Z24)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <f>('5-й курс (магістр)'!AA24+'6-й курс (магістр)'!AA24)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f>('5-й курс (магістр)'!AB24+'6-й курс (магістр)'!AB24)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>70000</v>
+      </c>
+      <c r="I23">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <f>('5-й курс (магістр)'!Z25+'6-й курс (магістр)'!Z25)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <f>('5-й курс (магістр)'!AA25+'6-й курс (магістр)'!AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <f>('5-й курс (магістр)'!AB25+'6-й курс (магістр)'!AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>70000</v>
+      </c>
+      <c r="I24">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <f>('5-й курс (магістр)'!Z26+'6-й курс (магістр)'!Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <f>('5-й курс (магістр)'!AA26+'6-й курс (магістр)'!AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f>('5-й курс (магістр)'!AB26+'6-й курс (магістр)'!AB26)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>70000</v>
+      </c>
+      <c r="I25">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <f>('5-й курс (магістр)'!Z27+'6-й курс (магістр)'!Z27)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <f>('5-й курс (магістр)'!AA27+'6-й курс (магістр)'!AA27)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f>('5-й курс (магістр)'!AB27+'6-й курс (магістр)'!AB27)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>70000</v>
+      </c>
+      <c r="I26">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <f>('5-й курс (магістр)'!Z28+'6-й курс (магістр)'!Z28)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f>('5-й курс (магістр)'!AA28+'6-й курс (магістр)'!AA28)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <f>('5-й курс (магістр)'!AB28+'6-й курс (магістр)'!AB28)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>70000</v>
+      </c>
+      <c r="I27">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <f>('5-й курс (магістр)'!Z29+'6-й курс (магістр)'!Z29)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f>('5-й курс (магістр)'!AA29+'6-й курс (магістр)'!AA29)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f>('5-й курс (магістр)'!AB29+'6-й курс (магістр)'!AB29)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>70000</v>
+      </c>
+      <c r="I28">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <f>('5-й курс (магістр)'!Z30+'6-й курс (магістр)'!Z30)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <f>('5-й курс (магістр)'!AA30+'6-й курс (магістр)'!AA30)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f>('5-й курс (магістр)'!AB30+'6-й курс (магістр)'!AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>70000</v>
+      </c>
+      <c r="I29">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <f>('5-й курс (магістр)'!Z31+'6-й курс (магістр)'!Z31)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <f>('5-й курс (магістр)'!AA31+'6-й курс (магістр)'!AA31)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <f>('5-й курс (магістр)'!AB31+'6-й курс (магістр)'!AB31)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>70000</v>
+      </c>
+      <c r="I30">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <f>('5-й курс (магістр)'!Z32+'6-й курс (магістр)'!Z32)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <f>('5-й курс (магістр)'!AA32+'6-й курс (магістр)'!AA32)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f>('5-й курс (магістр)'!AB32+'6-й курс (магістр)'!AB32)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>70000</v>
+      </c>
+      <c r="I31">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <f>('5-й курс (магістр)'!Z33+'6-й курс (магістр)'!Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <f>('5-й курс (магістр)'!AA33+'6-й курс (магістр)'!AA33)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <f>('5-й курс (магістр)'!AB33+'6-й курс (магістр)'!AB33)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>70000</v>
+      </c>
+      <c r="I32">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <f>('5-й курс (магістр)'!Z34+'6-й курс (магістр)'!Z34)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <f>('5-й курс (магістр)'!AA34+'6-й курс (магістр)'!AA34)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <f>('5-й курс (магістр)'!AB34+'6-й курс (магістр)'!AB34)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>70000</v>
+      </c>
+      <c r="I33">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <f>('5-й курс (магістр)'!Z35+'6-й курс (магістр)'!Z35)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <f>('5-й курс (магістр)'!AA35+'6-й курс (магістр)'!AA35)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <f>('5-й курс (магістр)'!AB35+'6-й курс (магістр)'!AB35)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>70000</v>
+      </c>
+      <c r="I34">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <f>('5-й курс (магістр)'!Z36+'6-й курс (магістр)'!Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <f>('5-й курс (магістр)'!AA36+'6-й курс (магістр)'!AA36)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <f>('5-й курс (магістр)'!AB36+'6-й курс (магістр)'!AB36)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>70000</v>
+      </c>
+      <c r="I35">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <f>('5-й курс (магістр)'!Z37+'6-й курс (магістр)'!Z37)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <f>('5-й курс (магістр)'!AA37+'6-й курс (магістр)'!AA37)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <f>('5-й курс (магістр)'!AB37+'6-й курс (магістр)'!AB37)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>70000</v>
+      </c>
+      <c r="I36">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <f>('5-й курс (магістр)'!Z38+'6-й курс (магістр)'!Z38)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <f>('5-й курс (магістр)'!AA38+'6-й курс (магістр)'!AA38)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f>('5-й курс (магістр)'!AB38+'6-й курс (магістр)'!AB38)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>70000</v>
+      </c>
+      <c r="I37">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <f>('5-й курс (магістр)'!Z39+'6-й курс (магістр)'!Z39)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <f>('5-й курс (магістр)'!AA39+'6-й курс (магістр)'!AA39)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <f>('5-й курс (магістр)'!AB39+'6-й курс (магістр)'!AB39)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>70000</v>
+      </c>
+      <c r="I38">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <f>('5-й курс (магістр)'!Z40+'6-й курс (магістр)'!Z40)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <f>('5-й курс (магістр)'!AA40+'6-й курс (магістр)'!AA40)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <f>('5-й курс (магістр)'!AB40+'6-й курс (магістр)'!AB40)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>70000</v>
+      </c>
+      <c r="I39">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <f>('5-й курс (магістр)'!Z41+'6-й курс (магістр)'!Z41)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <f>('5-й курс (магістр)'!AA41+'6-й курс (магістр)'!AA41)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <f>('5-й курс (магістр)'!AB41+'6-й курс (магістр)'!AB41)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>70000</v>
+      </c>
+      <c r="I40">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <f>('5-й курс (магістр)'!Z42+'6-й курс (магістр)'!Z42)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f>('5-й курс (магістр)'!AA42+'6-й курс (магістр)'!AA42)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <f>('5-й курс (магістр)'!AB42+'6-й курс (магістр)'!AB42)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>70000</v>
+      </c>
+      <c r="I41">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <f>('5-й курс (магістр)'!Z43+'6-й курс (магістр)'!Z43)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <f>('5-й курс (магістр)'!AA43+'6-й курс (магістр)'!AA43)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <f>('5-й курс (магістр)'!AB43+'6-й курс (магістр)'!AB43)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>70000</v>
+      </c>
+      <c r="I42">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <f>('5-й курс (магістр)'!Z44+'6-й курс (магістр)'!Z44)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <f>('5-й курс (магістр)'!AA44+'6-й курс (магістр)'!AA44)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <f>('5-й курс (магістр)'!AB44+'6-й курс (магістр)'!AB44)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>70000</v>
+      </c>
+      <c r="I43">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <f>('5-й курс (магістр)'!Z45+'6-й курс (магістр)'!Z45)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <f>('5-й курс (магістр)'!AA45+'6-й курс (магістр)'!AA45)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <f>('5-й курс (магістр)'!AB45+'6-й курс (магістр)'!AB45)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>70000</v>
+      </c>
+      <c r="I44">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <f>('5-й курс (магістр)'!Z46+'6-й курс (магістр)'!Z46)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <f>('5-й курс (магістр)'!AA46+'6-й курс (магістр)'!AA46)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <f>('5-й курс (магістр)'!AB46+'6-й курс (магістр)'!AB46)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>70000</v>
+      </c>
+      <c r="I45">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f>('5-й курс (магістр)'!Z47+'6-й курс (магістр)'!Z47)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <f>('5-й курс (магістр)'!AA47+'6-й курс (магістр)'!AA47)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <f>('5-й курс (магістр)'!AB47+'6-й курс (магістр)'!AB47)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>70000</v>
+      </c>
+      <c r="I46">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <f>('5-й курс (магістр)'!Z48+'6-й курс (магістр)'!Z48)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <f>('5-й курс (магістр)'!AA48+'6-й курс (магістр)'!AA48)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <f>('5-й курс (магістр)'!AB48+'6-й курс (магістр)'!AB48)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>70000</v>
+      </c>
+      <c r="I47">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <f>('5-й курс (магістр)'!Z49+'6-й курс (магістр)'!Z49)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <f>('5-й курс (магістр)'!AA49+'6-й курс (магістр)'!AA49)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <f>('5-й курс (магістр)'!AB49+'6-й курс (магістр)'!AB49)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>70000</v>
+      </c>
+      <c r="I48">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <f>('5-й курс (магістр)'!Z50+'6-й курс (магістр)'!Z50)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <f>('5-й курс (магістр)'!AA50+'6-й курс (магістр)'!AA50)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <f>('5-й курс (магістр)'!AB50+'6-й курс (магістр)'!AB50)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>70000</v>
+      </c>
+      <c r="I49">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <f>('5-й курс (магістр)'!Z51+'6-й курс (магістр)'!Z51)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <f>('5-й курс (магістр)'!AA51+'6-й курс (магістр)'!AA51)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <f>('5-й курс (магістр)'!AB51+'6-й курс (магістр)'!AB51)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>70000</v>
+      </c>
+      <c r="I50">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <f>('5-й курс (магістр)'!Z52+'6-й курс (магістр)'!Z52)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <f>('5-й курс (магістр)'!AA52+'6-й курс (магістр)'!AA52)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <f>('5-й курс (магістр)'!AB52+'6-й курс (магістр)'!AB52)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>70000</v>
+      </c>
+      <c r="I51">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <f>('5-й курс (магістр)'!Z53+'6-й курс (магістр)'!Z53)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <f>('5-й курс (магістр)'!AA53+'6-й курс (магістр)'!AA53)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <f>('5-й курс (магістр)'!AB53+'6-й курс (магістр)'!AB53)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>70000</v>
+      </c>
+      <c r="I52">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <f>('5-й курс (магістр)'!Z54+'6-й курс (магістр)'!Z54)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <f>('5-й курс (магістр)'!AA54+'6-й курс (магістр)'!AA54)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <f>('5-й курс (магістр)'!AB54+'6-й курс (магістр)'!AB54)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>70000</v>
+      </c>
+      <c r="I53">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <f>('5-й курс (магістр)'!Z55+'6-й курс (магістр)'!Z55)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <f>('5-й курс (магістр)'!AA55+'6-й курс (магістр)'!AA55)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <f>('5-й курс (магістр)'!AB55+'6-й курс (магістр)'!AB55)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>70000</v>
+      </c>
+      <c r="I54">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <f>('5-й курс (магістр)'!Z56+'6-й курс (магістр)'!Z56)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <f>('5-й курс (магістр)'!AA56+'6-й курс (магістр)'!AA56)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <f>('5-й курс (магістр)'!AB56+'6-й курс (магістр)'!AB56)</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>70000</v>
+      </c>
+      <c r="I55">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <f>('5-й курс (магістр)'!Z57+'6-й курс (магістр)'!Z57)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <f>('5-й курс (магістр)'!AA57+'6-й курс (магістр)'!AA57)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <f>('5-й курс (магістр)'!AB57+'6-й курс (магістр)'!AB57)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>70000</v>
+      </c>
+      <c r="I56">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <f>('5-й курс (магістр)'!Z58+'6-й курс (магістр)'!Z58)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <f>('5-й курс (магістр)'!AA58+'6-й курс (магістр)'!AA58)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <f>('5-й курс (магістр)'!AB58+'6-й курс (магістр)'!AB58)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>70000</v>
+      </c>
+      <c r="I57">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <f>('5-й курс (магістр)'!Z59+'6-й курс (магістр)'!Z59)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <f>('5-й курс (магістр)'!AA59+'6-й курс (магістр)'!AA59)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <f>('5-й курс (магістр)'!AB59+'6-й курс (магістр)'!AB59)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>70000</v>
+      </c>
+      <c r="I58">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <f>('5-й курс (магістр)'!Z60+'6-й курс (магістр)'!Z60)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <f>('5-й курс (магістр)'!AA60+'6-й курс (магістр)'!AA60)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <f>('5-й курс (магістр)'!AB60+'6-й курс (магістр)'!AB60)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>70000</v>
+      </c>
+      <c r="I59">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <f>('5-й курс (магістр)'!Z61+'6-й курс (магістр)'!Z61)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <f>('5-й курс (магістр)'!AA61+'6-й курс (магістр)'!AA61)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <f>('5-й курс (магістр)'!AB61+'6-й курс (магістр)'!AB61)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>70000</v>
+      </c>
+      <c r="I60">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <f>('5-й курс (магістр)'!Z62+'6-й курс (магістр)'!Z62)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <f>('5-й курс (магістр)'!AA62+'6-й курс (магістр)'!AA62)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <f>('5-й курс (магістр)'!AB62+'6-й курс (магістр)'!AB62)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>70000</v>
+      </c>
+      <c r="I61">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <f>('5-й курс (магістр)'!Z63+'6-й курс (магістр)'!Z63)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <f>('5-й курс (магістр)'!AA63+'6-й курс (магістр)'!AA63)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <f>('5-й курс (магістр)'!AB63+'6-й курс (магістр)'!AB63)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>70000</v>
+      </c>
+      <c r="I62">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <f>('5-й курс (магістр)'!Z64+'6-й курс (магістр)'!Z64)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <f>('5-й курс (магістр)'!AA64+'6-й курс (магістр)'!AA64)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <f>('5-й курс (магістр)'!AB64+'6-й курс (магістр)'!AB64)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>70000</v>
+      </c>
+      <c r="I63">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <f>('5-й курс (магістр)'!Z65+'6-й курс (магістр)'!Z65)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <f>('5-й курс (магістр)'!AA65+'6-й курс (магістр)'!AA65)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <f>('5-й курс (магістр)'!AB65+'6-й курс (магістр)'!AB65)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>70000</v>
+      </c>
+      <c r="I64">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <f>('5-й курс (магістр)'!Z66+'6-й курс (магістр)'!Z66)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <f>('5-й курс (магістр)'!AA66+'6-й курс (магістр)'!AA66)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <f>('5-й курс (магістр)'!AB66+'6-й курс (магістр)'!AB66)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>70000</v>
+      </c>
+      <c r="I65">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <f>('5-й курс (магістр)'!Z67+'6-й курс (магістр)'!Z67)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <f>('5-й курс (магістр)'!AA67+'6-й курс (магістр)'!AA67)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <f>('5-й курс (магістр)'!AB67+'6-й курс (магістр)'!AB67)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>70000</v>
+      </c>
+      <c r="I66">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <f>('5-й курс (магістр)'!Z68+'6-й курс (магістр)'!Z68)</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <f>('5-й курс (магістр)'!AA68+'6-й курс (магістр)'!AA68)</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <f>('5-й курс (магістр)'!AB68+'6-й курс (магістр)'!AB68)</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G92" si="3">F67/$G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>70000</v>
+      </c>
+      <c r="I67">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B92" si="4">G68</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <f>('5-й курс (магістр)'!Z69+'6-й курс (магістр)'!Z69)</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <f>('5-й курс (магістр)'!AA69+'6-й курс (магістр)'!AA69)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <f>('5-й курс (магістр)'!AB69+'6-й курс (магістр)'!AB69)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:F92" si="5">E68/A68</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>70000</v>
+      </c>
+      <c r="I68">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <f>('5-й курс (магістр)'!Z70+'6-й курс (магістр)'!Z70)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <f>('5-й курс (магістр)'!AA70+'6-й курс (магістр)'!AA70)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <f>('5-й курс (магістр)'!AB70+'6-й курс (магістр)'!AB70)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>70000</v>
+      </c>
+      <c r="I69">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <f>('5-й курс (магістр)'!Z71+'6-й курс (магістр)'!Z71)</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <f>('5-й курс (магістр)'!AA71+'6-й курс (магістр)'!AA71)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <f>('5-й курс (магістр)'!AB71+'6-й курс (магістр)'!AB71)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>70000</v>
+      </c>
+      <c r="I70">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <f>('5-й курс (магістр)'!Z72+'6-й курс (магістр)'!Z72)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <f>('5-й курс (магістр)'!AA72+'6-й курс (магістр)'!AA72)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <f>('5-й курс (магістр)'!AB72+'6-й курс (магістр)'!AB72)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>70000</v>
+      </c>
+      <c r="I71">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <f>('5-й курс (магістр)'!Z73+'6-й курс (магістр)'!Z73)</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <f>('5-й курс (магістр)'!AA73+'6-й курс (магістр)'!AA73)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <f>('5-й курс (магістр)'!AB73+'6-й курс (магістр)'!AB73)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>70000</v>
+      </c>
+      <c r="I72">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <f>('5-й курс (магістр)'!Z74+'6-й курс (магістр)'!Z74)</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <f>('5-й курс (магістр)'!AA74+'6-й курс (магістр)'!AA74)</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <f>('5-й курс (магістр)'!AB74+'6-й курс (магістр)'!AB74)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>70000</v>
+      </c>
+      <c r="I73">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <f>('5-й курс (магістр)'!Z75+'6-й курс (магістр)'!Z75)</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <f>('5-й курс (магістр)'!AA75+'6-й курс (магістр)'!AA75)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <f>('5-й курс (магістр)'!AB75+'6-й курс (магістр)'!AB75)</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>70000</v>
+      </c>
+      <c r="I74">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <f>('5-й курс (магістр)'!Z76+'6-й курс (магістр)'!Z76)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <f>('5-й курс (магістр)'!AA76+'6-й курс (магістр)'!AA76)</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <f>('5-й курс (магістр)'!AB76+'6-й курс (магістр)'!AB76)</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>70000</v>
+      </c>
+      <c r="I75">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <f>('5-й курс (магістр)'!Z77+'6-й курс (магістр)'!Z77)</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <f>('5-й курс (магістр)'!AA77+'6-й курс (магістр)'!AA77)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <f>('5-й курс (магістр)'!AB77+'6-й курс (магістр)'!AB77)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>70000</v>
+      </c>
+      <c r="I76">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <f>('5-й курс (магістр)'!Z78+'6-й курс (магістр)'!Z78)</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <f>('5-й курс (магістр)'!AA78+'6-й курс (магістр)'!AA78)</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <f>('5-й курс (магістр)'!AB78+'6-й курс (магістр)'!AB78)</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>70000</v>
+      </c>
+      <c r="I77">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <f>('5-й курс (магістр)'!Z79+'6-й курс (магістр)'!Z79)</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <f>('5-й курс (магістр)'!AA79+'6-й курс (магістр)'!AA79)</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <f>('5-й курс (магістр)'!AB79+'6-й курс (магістр)'!AB79)</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>70000</v>
+      </c>
+      <c r="I78">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <f>('5-й курс (магістр)'!Z80+'6-й курс (магістр)'!Z80)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <f>('5-й курс (магістр)'!AA80+'6-й курс (магістр)'!AA80)</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <f>('5-й курс (магістр)'!AB80+'6-й курс (магістр)'!AB80)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>70000</v>
+      </c>
+      <c r="I79">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <f>('5-й курс (магістр)'!Z81+'6-й курс (магістр)'!Z81)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <f>('5-й курс (магістр)'!AA81+'6-й курс (магістр)'!AA81)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <f>('5-й курс (магістр)'!AB81+'6-й курс (магістр)'!AB81)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>70000</v>
+      </c>
+      <c r="I80">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <f>('5-й курс (магістр)'!Z82+'6-й курс (магістр)'!Z82)</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <f>('5-й курс (магістр)'!AA82+'6-й курс (магістр)'!AA82)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <f>('5-й курс (магістр)'!AB82+'6-й курс (магістр)'!AB82)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>70000</v>
+      </c>
+      <c r="I81">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <f>('5-й курс (магістр)'!Z83+'6-й курс (магістр)'!Z83)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <f>('5-й курс (магістр)'!AA83+'6-й курс (магістр)'!AA83)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <f>('5-й курс (магістр)'!AB83+'6-й курс (магістр)'!AB83)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>70000</v>
+      </c>
+      <c r="I82">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <f>('5-й курс (магістр)'!Z84+'6-й курс (магістр)'!Z84)</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <f>('5-й курс (магістр)'!AA84+'6-й курс (магістр)'!AA84)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <f>('5-й курс (магістр)'!AB84+'6-й курс (магістр)'!AB84)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>70000</v>
+      </c>
+      <c r="I83">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <f>('5-й курс (магістр)'!Z85+'6-й курс (магістр)'!Z85)</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <f>('5-й курс (магістр)'!AA85+'6-й курс (магістр)'!AA85)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <f>('5-й курс (магістр)'!AB85+'6-й курс (магістр)'!AB85)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>70000</v>
+      </c>
+      <c r="I84">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <f>('5-й курс (магістр)'!Z86+'6-й курс (магістр)'!Z86)</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <f>('5-й курс (магістр)'!AA86+'6-й курс (магістр)'!AA86)</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <f>('5-й курс (магістр)'!AB86+'6-й курс (магістр)'!AB86)</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>70000</v>
+      </c>
+      <c r="I85">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <f>('5-й курс (магістр)'!Z87+'6-й курс (магістр)'!Z87)</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <f>('5-й курс (магістр)'!AA87+'6-й курс (магістр)'!AA87)</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <f>('5-й курс (магістр)'!AB87+'6-й курс (магістр)'!AB87)</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>70000</v>
+      </c>
+      <c r="I86">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <f>('5-й курс (магістр)'!Z88+'6-й курс (магістр)'!Z88)</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <f>('5-й курс (магістр)'!AA88+'6-й курс (магістр)'!AA88)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <f>('5-й курс (магістр)'!AB88+'6-й курс (магістр)'!AB88)</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>70000</v>
+      </c>
+      <c r="I87">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <f>('5-й курс (магістр)'!Z89+'6-й курс (магістр)'!Z89)</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <f>('5-й курс (магістр)'!AA89+'6-й курс (магістр)'!AA89)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <f>('5-й курс (магістр)'!AB89+'6-й курс (магістр)'!AB89)</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>70000</v>
+      </c>
+      <c r="I88">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <f>('5-й курс (магістр)'!Z90+'6-й курс (магістр)'!Z90)</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <f>('5-й курс (магістр)'!AA90+'6-й курс (магістр)'!AA90)</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <f>('5-й курс (магістр)'!AB90+'6-й курс (магістр)'!AB90)</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>70000</v>
+      </c>
+      <c r="I89">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <f>('5-й курс (магістр)'!Z91+'6-й курс (магістр)'!Z91)</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <f>('5-й курс (магістр)'!AA91+'6-й курс (магістр)'!AA91)</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <f>('5-й курс (магістр)'!AB91+'6-й курс (магістр)'!AB91)</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>70000</v>
+      </c>
+      <c r="I90">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <f>('5-й курс (магістр)'!Z92+'6-й курс (магістр)'!Z92)</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <f>('5-й курс (магістр)'!AA92+'6-й курс (магістр)'!AA92)</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <f>('5-й курс (магістр)'!AB92+'6-й курс (магістр)'!AB92)</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>70000</v>
+      </c>
+      <c r="I91">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <f>('5-й курс (магістр)'!Z93+'6-й курс (магістр)'!Z93)</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <f>('5-й курс (магістр)'!AA93+'6-й курс (магістр)'!AA93)</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <f>('5-й курс (магістр)'!AB93+'6-й курс (магістр)'!AB93)</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>70000</v>
+      </c>
+      <c r="I92">
+        <v>35000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G3:G92">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>70000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G92">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>35000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/розрахунок вартості шаблон.xlsx
+++ b/розрахунок вартості шаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\7_семестр\курсавая\term_paper_3d_grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45E97EE-A5CC-4512-9E92-B1C260A0673D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6DC36D-9CB6-4A18-8B82-8B66074FB884}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>Контингент студентів</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>вартість контракту</t>
+  </si>
+  <si>
+    <t>усього витрат на студента</t>
   </si>
 </sst>
 </file>
@@ -588,277 +591,277 @@
             <c:numRef>
               <c:f>'загальна вартість'!$I$3:$I$92</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>35000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,277 +895,277 @@
             <c:numRef>
               <c:f>'загальна вартість'!$H$3:$H$92</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>70000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,10 +1944,10 @@
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>106424</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>115651</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1955,7 +1958,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2293,13 +2298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2319,7 @@
     <col min="28" max="28" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2344,7 +2349,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="6"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2374,7 +2379,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2458,6 +2463,9 @@
       </c>
       <c r="AB3" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2468,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097DE100-1A72-44D2-B34E-8D802EAD06D6}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,7 +2494,7 @@
     <col min="28" max="28" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2516,7 +2524,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="6"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2546,7 +2554,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2630,6 +2638,9 @@
       </c>
       <c r="AB3" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2641,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41ECE9A-CF81-4A99-9873-07B387EA162D}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,11 +2728,13 @@
         <f t="shared" ref="G3:G66" si="0">F3/$G$1</f>
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>70000</v>
-      </c>
-      <c r="I3">
-        <v>35000</v>
+      <c r="H3" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2752,11 +2765,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>70000</v>
-      </c>
-      <c r="I4">
-        <v>35000</v>
+      <c r="H4" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2787,11 +2802,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>70000</v>
-      </c>
-      <c r="I5">
-        <v>35000</v>
+      <c r="H5" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2822,11 +2839,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>70000</v>
-      </c>
-      <c r="I6">
-        <v>35000</v>
+      <c r="H6" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2857,11 +2876,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>70000</v>
-      </c>
-      <c r="I7">
-        <v>35000</v>
+      <c r="H7" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2892,11 +2913,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>70000</v>
-      </c>
-      <c r="I8">
-        <v>35000</v>
+      <c r="H8" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2927,11 +2950,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>70000</v>
-      </c>
-      <c r="I9">
-        <v>35000</v>
+      <c r="H9" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2962,11 +2987,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>70000</v>
-      </c>
-      <c r="I10">
-        <v>35000</v>
+      <c r="H10" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2997,11 +3024,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>70000</v>
-      </c>
-      <c r="I11">
-        <v>35000</v>
+      <c r="H11" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3032,11 +3061,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>70000</v>
-      </c>
-      <c r="I12">
-        <v>35000</v>
+      <c r="H12" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3067,11 +3098,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>70000</v>
-      </c>
-      <c r="I13">
-        <v>35000</v>
+      <c r="H13" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3102,11 +3135,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>70000</v>
-      </c>
-      <c r="I14">
-        <v>35000</v>
+      <c r="H14" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3137,11 +3172,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>70000</v>
-      </c>
-      <c r="I15">
-        <v>35000</v>
+      <c r="H15" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3172,11 +3209,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>70000</v>
-      </c>
-      <c r="I16">
-        <v>35000</v>
+      <c r="H16" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3207,11 +3246,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>70000</v>
-      </c>
-      <c r="I17">
-        <v>35000</v>
+      <c r="H17" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,11 +3283,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>70000</v>
-      </c>
-      <c r="I18">
-        <v>35000</v>
+      <c r="H18" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3277,11 +3320,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>70000</v>
-      </c>
-      <c r="I19">
-        <v>35000</v>
+      <c r="H19" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,11 +3357,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>70000</v>
-      </c>
-      <c r="I20">
-        <v>35000</v>
+      <c r="H20" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3347,11 +3394,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>70000</v>
-      </c>
-      <c r="I21">
-        <v>35000</v>
+      <c r="H21" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3382,11 +3431,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>70000</v>
-      </c>
-      <c r="I22">
-        <v>35000</v>
+      <c r="H22" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3417,11 +3468,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>70000</v>
-      </c>
-      <c r="I23">
-        <v>35000</v>
+      <c r="H23" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3452,11 +3505,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>70000</v>
-      </c>
-      <c r="I24">
-        <v>35000</v>
+      <c r="H24" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3487,11 +3542,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>70000</v>
-      </c>
-      <c r="I25">
-        <v>35000</v>
+      <c r="H25" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3522,11 +3579,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>70000</v>
-      </c>
-      <c r="I26">
-        <v>35000</v>
+      <c r="H26" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3557,11 +3616,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>70000</v>
-      </c>
-      <c r="I27">
-        <v>35000</v>
+      <c r="H27" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3592,11 +3653,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>70000</v>
-      </c>
-      <c r="I28">
-        <v>35000</v>
+      <c r="H28" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3627,11 +3690,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>70000</v>
-      </c>
-      <c r="I29">
-        <v>35000</v>
+      <c r="H29" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3662,11 +3727,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>70000</v>
-      </c>
-      <c r="I30">
-        <v>35000</v>
+      <c r="H30" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3697,11 +3764,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>70000</v>
-      </c>
-      <c r="I31">
-        <v>35000</v>
+      <c r="H31" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3732,11 +3801,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>70000</v>
-      </c>
-      <c r="I32">
-        <v>35000</v>
+      <c r="H32" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3767,11 +3838,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>70000</v>
-      </c>
-      <c r="I33">
-        <v>35000</v>
+      <c r="H33" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3802,11 +3875,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>70000</v>
-      </c>
-      <c r="I34">
-        <v>35000</v>
+      <c r="H34" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3837,11 +3912,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>70000</v>
-      </c>
-      <c r="I35">
-        <v>35000</v>
+      <c r="H35" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3872,11 +3949,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>70000</v>
-      </c>
-      <c r="I36">
-        <v>35000</v>
+      <c r="H36" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3907,11 +3986,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>70000</v>
-      </c>
-      <c r="I37">
-        <v>35000</v>
+      <c r="H37" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3942,11 +4023,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>70000</v>
-      </c>
-      <c r="I38">
-        <v>35000</v>
+      <c r="H38" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3977,11 +4060,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>70000</v>
-      </c>
-      <c r="I39">
-        <v>35000</v>
+      <c r="H39" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4012,11 +4097,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>70000</v>
-      </c>
-      <c r="I40">
-        <v>35000</v>
+      <c r="H40" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4047,11 +4134,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>70000</v>
-      </c>
-      <c r="I41">
-        <v>35000</v>
+      <c r="H41" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4082,11 +4171,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>70000</v>
-      </c>
-      <c r="I42">
-        <v>35000</v>
+      <c r="H42" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4117,11 +4208,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>70000</v>
-      </c>
-      <c r="I43">
-        <v>35000</v>
+      <c r="H43" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4152,11 +4245,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>70000</v>
-      </c>
-      <c r="I44">
-        <v>35000</v>
+      <c r="H44" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4187,11 +4282,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>70000</v>
-      </c>
-      <c r="I45">
-        <v>35000</v>
+      <c r="H45" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4222,11 +4319,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>70000</v>
-      </c>
-      <c r="I46">
-        <v>35000</v>
+      <c r="H46" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4257,11 +4356,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>70000</v>
-      </c>
-      <c r="I47">
-        <v>35000</v>
+      <c r="H47" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4292,11 +4393,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>70000</v>
-      </c>
-      <c r="I48">
-        <v>35000</v>
+      <c r="H48" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4327,11 +4430,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>70000</v>
-      </c>
-      <c r="I49">
-        <v>35000</v>
+      <c r="H49" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4362,11 +4467,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>70000</v>
-      </c>
-      <c r="I50">
-        <v>35000</v>
+      <c r="H50" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4397,11 +4504,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>70000</v>
-      </c>
-      <c r="I51">
-        <v>35000</v>
+      <c r="H51" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4432,11 +4541,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>70000</v>
-      </c>
-      <c r="I52">
-        <v>35000</v>
+      <c r="H52" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4467,11 +4578,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>70000</v>
-      </c>
-      <c r="I53">
-        <v>35000</v>
+      <c r="H53" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4502,11 +4615,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>70000</v>
-      </c>
-      <c r="I54">
-        <v>35000</v>
+      <c r="H54" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4537,11 +4652,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>70000</v>
-      </c>
-      <c r="I55">
-        <v>35000</v>
+      <c r="H55" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4572,11 +4689,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>70000</v>
-      </c>
-      <c r="I56">
-        <v>35000</v>
+      <c r="H56" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4607,11 +4726,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>70000</v>
-      </c>
-      <c r="I57">
-        <v>35000</v>
+      <c r="H57" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4642,11 +4763,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>70000</v>
-      </c>
-      <c r="I58">
-        <v>35000</v>
+      <c r="H58" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4677,11 +4800,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>70000</v>
-      </c>
-      <c r="I59">
-        <v>35000</v>
+      <c r="H59" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4712,11 +4837,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>70000</v>
-      </c>
-      <c r="I60">
-        <v>35000</v>
+      <c r="H60" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4747,11 +4874,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>70000</v>
-      </c>
-      <c r="I61">
-        <v>35000</v>
+      <c r="H61" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4782,11 +4911,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>70000</v>
-      </c>
-      <c r="I62">
-        <v>35000</v>
+      <c r="H62" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4817,11 +4948,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>70000</v>
-      </c>
-      <c r="I63">
-        <v>35000</v>
+      <c r="H63" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4852,11 +4985,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>70000</v>
-      </c>
-      <c r="I64">
-        <v>35000</v>
+      <c r="H64" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4887,11 +5022,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>70000</v>
-      </c>
-      <c r="I65">
-        <v>35000</v>
+      <c r="H65" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4922,11 +5059,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>70000</v>
-      </c>
-      <c r="I66">
-        <v>35000</v>
+      <c r="H66" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4957,11 +5096,13 @@
         <f t="shared" ref="G67:G92" si="3">F67/$G$1</f>
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>70000</v>
-      </c>
-      <c r="I67">
-        <v>35000</v>
+      <c r="H67" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4992,11 +5133,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>70000</v>
-      </c>
-      <c r="I68">
-        <v>35000</v>
+      <c r="H68" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5027,11 +5170,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>70000</v>
-      </c>
-      <c r="I69">
-        <v>35000</v>
+      <c r="H69" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5062,11 +5207,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>70000</v>
-      </c>
-      <c r="I70">
-        <v>35000</v>
+      <c r="H70" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5097,11 +5244,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>70000</v>
-      </c>
-      <c r="I71">
-        <v>35000</v>
+      <c r="H71" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -5132,11 +5281,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>70000</v>
-      </c>
-      <c r="I72">
-        <v>35000</v>
+      <c r="H72" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5167,11 +5318,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>70000</v>
-      </c>
-      <c r="I73">
-        <v>35000</v>
+      <c r="H73" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5202,11 +5355,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>70000</v>
-      </c>
-      <c r="I74">
-        <v>35000</v>
+      <c r="H74" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -5237,11 +5392,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>70000</v>
-      </c>
-      <c r="I75">
-        <v>35000</v>
+      <c r="H75" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -5272,11 +5429,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>70000</v>
-      </c>
-      <c r="I76">
-        <v>35000</v>
+      <c r="H76" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5307,11 +5466,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>70000</v>
-      </c>
-      <c r="I77">
-        <v>35000</v>
+      <c r="H77" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -5342,11 +5503,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>70000</v>
-      </c>
-      <c r="I78">
-        <v>35000</v>
+      <c r="H78" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5377,11 +5540,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>70000</v>
-      </c>
-      <c r="I79">
-        <v>35000</v>
+      <c r="H79" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -5412,11 +5577,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>70000</v>
-      </c>
-      <c r="I80">
-        <v>35000</v>
+      <c r="H80" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5447,11 +5614,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>70000</v>
-      </c>
-      <c r="I81">
-        <v>35000</v>
+      <c r="H81" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5482,11 +5651,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>70000</v>
-      </c>
-      <c r="I82">
-        <v>35000</v>
+      <c r="H82" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5517,11 +5688,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>70000</v>
-      </c>
-      <c r="I83">
-        <v>35000</v>
+      <c r="H83" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5552,11 +5725,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>70000</v>
-      </c>
-      <c r="I84">
-        <v>35000</v>
+      <c r="H84" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5587,11 +5762,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>70000</v>
-      </c>
-      <c r="I85">
-        <v>35000</v>
+      <c r="H85" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5622,11 +5799,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>70000</v>
-      </c>
-      <c r="I86">
-        <v>35000</v>
+      <c r="H86" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5657,11 +5836,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H87">
-        <v>70000</v>
-      </c>
-      <c r="I87">
-        <v>35000</v>
+      <c r="H87" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5692,11 +5873,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>70000</v>
-      </c>
-      <c r="I88">
-        <v>35000</v>
+      <c r="H88" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5727,11 +5910,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H89">
-        <v>70000</v>
-      </c>
-      <c r="I89">
-        <v>35000</v>
+      <c r="H89" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5762,11 +5947,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H90">
-        <v>70000</v>
-      </c>
-      <c r="I90">
-        <v>35000</v>
+      <c r="H90" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5797,11 +5984,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>70000</v>
-      </c>
-      <c r="I91">
-        <v>35000</v>
+      <c r="H91" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5832,11 +6021,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>70000</v>
-      </c>
-      <c r="I92">
-        <v>35000</v>
+      <c r="H92" s="1">
+        <f>'5-й курс (магістр)'!$AB$2</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <f>'5-й курс (магістр)'!$AC$2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/розрахунок вартості шаблон.xlsx
+++ b/розрахунок вартості шаблон.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\7_семестр\курсавая\term_paper_3d_grade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\8_семестр\диплом\term_paper_3d_grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6DC36D-9CB6-4A18-8B82-8B66074FB884}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051A5E7-E61E-418B-B06B-FF44A642BE22}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2652,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41ECE9A-CF81-4A99-9873-07B387EA162D}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,11 +2729,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -2766,11 +2766,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -2803,11 +2803,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -2840,11 +2840,11 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -2877,11 +2877,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -2914,11 +2914,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -2951,11 +2951,11 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -2988,11 +2988,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3025,11 +3025,11 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3062,11 +3062,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3099,11 +3099,11 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3136,11 +3136,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3173,11 +3173,11 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3210,11 +3210,11 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3247,11 +3247,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3284,11 +3284,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3321,11 +3321,11 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3358,11 +3358,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3395,11 +3395,11 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3432,11 +3432,11 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3469,11 +3469,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3506,11 +3506,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3543,11 +3543,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3580,11 +3580,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3617,11 +3617,11 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3654,11 +3654,11 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3691,11 +3691,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3728,11 +3728,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3765,11 +3765,11 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3802,11 +3802,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3876,11 +3876,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3913,11 +3913,11 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3950,11 +3950,11 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3987,11 +3987,11 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4024,11 +4024,11 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4098,11 +4098,11 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4135,11 +4135,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4172,11 +4172,11 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4209,11 +4209,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4246,11 +4246,11 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4283,11 +4283,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4320,11 +4320,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4357,11 +4357,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4394,11 +4394,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4431,11 +4431,11 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4468,11 +4468,11 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4505,11 +4505,11 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4542,11 +4542,11 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4579,11 +4579,11 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4616,11 +4616,11 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4653,11 +4653,11 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4727,11 +4727,11 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4764,11 +4764,11 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4801,11 +4801,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4838,11 +4838,11 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4875,11 +4875,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4912,11 +4912,11 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4949,11 +4949,11 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -4986,11 +4986,11 @@
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5023,11 +5023,11 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5060,11 +5060,11 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5097,11 +5097,11 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5134,11 +5134,11 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5171,11 +5171,11 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5208,11 +5208,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5245,11 +5245,11 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5282,11 +5282,11 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5319,11 +5319,11 @@
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5356,11 +5356,11 @@
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5393,11 +5393,11 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5430,11 +5430,11 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5467,11 +5467,11 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5504,11 +5504,11 @@
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5541,11 +5541,11 @@
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5578,11 +5578,11 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5615,11 +5615,11 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I81" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5652,11 +5652,11 @@
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5689,11 +5689,11 @@
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5726,11 +5726,11 @@
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5763,11 +5763,11 @@
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5800,11 +5800,11 @@
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5837,11 +5837,11 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5874,11 +5874,11 @@
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I88" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5911,11 +5911,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5948,11 +5948,11 @@
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I90" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5985,11 +5985,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -6022,11 +6022,11 @@
         <v>0</v>
       </c>
       <c r="H92" s="1">
-        <f>'5-й курс (магістр)'!$AB$2</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
         <v>0</v>
       </c>
       <c r="I92" s="1">
-        <f>'5-й курс (магістр)'!$AC$2</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
         <v>0</v>
       </c>
     </row>

--- a/розрахунок вартості шаблон.xlsx
+++ b/розрахунок вартості шаблон.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\8_семестр\диплом\term_paper_3d_grade\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051A5E7-E61E-418B-B06B-FF44A642BE22}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="13200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="5-й курс (магістр)" sheetId="4" r:id="rId1"/>
     <sheet name="6-й курс (магістр)" sheetId="5" r:id="rId2"/>
     <sheet name="загальна вартість" sheetId="6" r:id="rId3"/>
+    <sheet name="рен групи" sheetId="16" r:id="rId4"/>
+    <sheet name="ціноутворення" sheetId="15" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Контингент студентів</t>
   </si>
@@ -122,11 +118,44 @@
   <si>
     <t>усього витрат на студента</t>
   </si>
+  <si>
+    <t>мінімальна кількість бюджетників для рентабельності групи</t>
+  </si>
+  <si>
+    <t>ціна рентабельності за рік</t>
+  </si>
+  <si>
+    <t>загальна сума рентабельності групи</t>
+  </si>
+  <si>
+    <t>кількість студентів-контрактників</t>
+  </si>
+  <si>
+    <t>вартість контракту за рік</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кількість контрактників = ціна за рік</t>
+  </si>
+  <si>
+    <t>Відсоток на зарплату НПП з усіма нарахуваннями</t>
+  </si>
+  <si>
+    <t>кількість студентів-бюджетників</t>
+  </si>
+  <si>
+    <t>річна вартість одного здобувача-бюджетника</t>
+  </si>
+  <si>
+    <t>річна мінімальна вартість однієї академічної групи</t>
+  </si>
+  <si>
+    <t>кількість бюджетників</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -199,6 +228,57 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -238,7 +318,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -563,7 +643,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A693-4ED6-8043-7C85E98692E8}"/>
             </c:ext>
@@ -867,7 +947,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A693-4ED6-8043-7C85E98692E8}"/>
             </c:ext>
@@ -1171,7 +1251,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A693-4ED6-8043-7C85E98692E8}"/>
             </c:ext>
@@ -1185,12 +1265,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92807535"/>
-        <c:axId val="99410175"/>
+        <c:axId val="169142272"/>
+        <c:axId val="165834688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92807535"/>
+        <c:axId val="169142272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,10 +1310,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99410175"/>
+        <c:crossAx val="165834688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1240,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99410175"/>
+        <c:axId val="165834688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,10 +1369,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92807535"/>
+        <c:crossAx val="169142272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1305,6 +1386,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1330,20 +1412,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1367,7 +1449,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1376,562 +1458,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,7 +1480,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B71F02D-16BB-4DD1-8CD2-FB3377275437}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B71F02D-16BB-4DD1-8CD2-FB3377275437}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +1546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2053,26 +1579,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2105,23 +1614,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2297,7 +1789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2475,7 +1967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097DE100-1A72-44D2-B34E-8D802EAD06D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2649,11 +2141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41ECE9A-CF81-4A99-9873-07B387EA162D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2160,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G1" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2725,15 +2217,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">F3/$G$1</f>
+        <f t="shared" ref="G3" si="0">F3/$G$1</f>
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -2762,15 +2254,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4:G67" si="3">F4/$G$1</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>I3</f>
         <v>0</v>
       </c>
     </row>
@@ -2799,15 +2291,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" ref="I5:I50" si="4">I4</f>
         <v>0</v>
       </c>
     </row>
@@ -2836,15 +2328,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2873,15 +2365,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2910,15 +2402,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2947,15 +2439,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2984,15 +2476,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3021,15 +2513,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3058,15 +2550,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3095,15 +2587,15 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3132,15 +2624,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3169,15 +2661,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3206,15 +2698,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3243,15 +2735,15 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3280,15 +2772,15 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3317,15 +2809,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3354,15 +2846,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3391,15 +2883,15 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3428,15 +2920,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3465,15 +2957,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3502,15 +2994,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3539,15 +3031,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3576,15 +3068,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3613,15 +3105,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3650,15 +3142,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3687,15 +3179,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3724,15 +3216,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3761,15 +3253,15 @@
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3798,15 +3290,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3835,15 +3327,15 @@
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3872,15 +3364,15 @@
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3909,15 +3401,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3946,15 +3438,15 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3983,15 +3475,15 @@
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4020,15 +3512,15 @@
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4057,15 +3549,15 @@
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4094,15 +3586,15 @@
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4131,15 +3623,15 @@
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4168,15 +3660,15 @@
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4205,15 +3697,15 @@
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4242,15 +3734,15 @@
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4279,15 +3771,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4316,15 +3808,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4353,15 +3845,15 @@
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4390,15 +3882,15 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4427,15 +3919,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4464,15 +3956,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4501,15 +3993,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4538,15 +4030,15 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4575,15 +4067,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4612,15 +4104,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4649,15 +4141,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4686,15 +4178,15 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4723,15 +4215,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4760,15 +4252,15 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4797,15 +4289,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4834,15 +4326,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4871,15 +4363,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4908,15 +4400,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4945,15 +4437,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -4982,15 +4474,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5019,15 +4511,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5056,15 +4548,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5093,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G92" si="3">F67/$G$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5110,7 +4602,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B92" si="4">G68</f>
+        <f t="shared" ref="B68:B92" si="5">G68</f>
         <v>0</v>
       </c>
       <c r="C68" s="1">
@@ -5126,19 +4618,19 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ref="F68:F92" si="5">E68/A68</f>
+        <f t="shared" ref="F68:F92" si="6">E68/A68</f>
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G68:G92" si="7">F68/$G$1</f>
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5147,7 +4639,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C69" s="1">
@@ -5163,19 +4655,19 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5184,7 +4676,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C70" s="1">
@@ -5200,19 +4692,19 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5221,7 +4713,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C71" s="1">
@@ -5237,19 +4729,19 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5258,7 +4750,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C72" s="1">
@@ -5274,19 +4766,19 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5295,7 +4787,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C73" s="1">
@@ -5311,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5332,7 +4824,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C74" s="1">
@@ -5348,19 +4840,19 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5369,7 +4861,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C75" s="1">
@@ -5385,19 +4877,19 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5406,7 +4898,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C76" s="1">
@@ -5422,19 +4914,19 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5443,7 +4935,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C77" s="1">
@@ -5459,19 +4951,19 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5480,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C78" s="1">
@@ -5496,19 +4988,19 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5517,7 +5009,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C79" s="1">
@@ -5533,19 +5025,19 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5554,7 +5046,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C80" s="1">
@@ -5570,19 +5062,19 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5591,7 +5083,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C81" s="1">
@@ -5607,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I81" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5628,7 +5120,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C82" s="1">
@@ -5644,19 +5136,19 @@
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5665,7 +5157,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C83" s="1">
@@ -5681,19 +5173,19 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5702,7 +5194,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C84" s="1">
@@ -5718,19 +5210,19 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5739,7 +5231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C85" s="1">
@@ -5755,19 +5247,19 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5776,7 +5268,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C86" s="1">
@@ -5792,19 +5284,19 @@
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5813,7 +5305,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C87" s="1">
@@ -5829,19 +5321,19 @@
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5850,7 +5342,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C88" s="1">
@@ -5866,19 +5358,19 @@
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I88" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5887,7 +5379,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C89" s="1">
@@ -5903,19 +5395,19 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5924,7 +5416,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C90" s="1">
@@ -5940,19 +5432,19 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I90" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5961,7 +5453,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C91" s="1">
@@ -5977,19 +5469,19 @@
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
@@ -5998,7 +5490,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C92" s="1">
@@ -6014,35 +5506,2265 @@
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H92" s="1">
-        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AB$2+'6-й курс (магістр)'!$AB$2/2)/$G$1</f>
         <v>0</v>
       </c>
       <c r="I92" s="1">
-        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2)/1.5</f>
+        <f>('5-й курс (магістр)'!$AC$2+'6-й курс (магістр)'!$AC$2/2)/$G$1</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G92">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>70000</formula>
+      <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G92">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>35000</formula>
+      <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E401"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
+        <f>B4*C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="14"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="14"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="14"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="14"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="14"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="14"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="14"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="14"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="14"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="14"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="14"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="14"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="14"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="14"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="14"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="14"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="14"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="14"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="14"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="14"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="14"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="14"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="14"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="14"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="14"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="14"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="14"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="14"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="14"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="14"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="14"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="14"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="14"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="14"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="14"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="14"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="14"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="14"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="14"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="14"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="14"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="14"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="14"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="14"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="14"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="14"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="14"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="14"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="14"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="14"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="14"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="14"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="14"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="14"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="14"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="14"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="14"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="14"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="14"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="14"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="14"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="14"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="14"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="14"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="14"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="14"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="14"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="14"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="14"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="14"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="14"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="14"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="14"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="14"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="14"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="14"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="14"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="14"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="14"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="14"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="14"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="14"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="14"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="14"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="14"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="14"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="14"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="14"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="14"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="14"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="14"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="14"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="14"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="14"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="14"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="14"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="14"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="14"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="14"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="14"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="14"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="14"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="14"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="14"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="14"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="14"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="14"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="14"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="14"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="14"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="14"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="14"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="14"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="14"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="14"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="14"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="14"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="14"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="14"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="14"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="14"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="14"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="14"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="14"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="14"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="14"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="14"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="14"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="14"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="14"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="14"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="14"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="14"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="14"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="14"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="14"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="14"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="14"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="14"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="14"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="14"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="14"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="14"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="14"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="14"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="14"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="14"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="14"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="14"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="14"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="14"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="14"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="14"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="14"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="14"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="14"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="14"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="14"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="14"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="14"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="14"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="14"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="14"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="14"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="14"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="14"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="14"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="14"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="14"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="14"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="14"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="14"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="14"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="14"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="14"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="14"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="14"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="14"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="14"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="14"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="14"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="14"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="14"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="14"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="14"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="14"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="14"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="14"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="14"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="14"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="14"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="14"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="14"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="14"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="14"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="14"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="14"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="14"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="14"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="14"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="14"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="14"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="14"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="14"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="14"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="14"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="14"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="14"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="14"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="14"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="14"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="14"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="14"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="14"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="14"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="14"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="14"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="14"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="14"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="14"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="14"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="14"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="14"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="14"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="14"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="14"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="14"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="14"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="14"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="14"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="14"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="14"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="14"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="14"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="14"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="14"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="14"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="14"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="14"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="14"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="14"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="14"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="14"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="14"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="14"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="14"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="14"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="14"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="14"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="14"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="14"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="14"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="14"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="14"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="14"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="14"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="14"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="14"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="14"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="14"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="14"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="14"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="14"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="14"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="14"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="14"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="14"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="14"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="14"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="14"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="14"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="14"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="14"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="14"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="14"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="14"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="14"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="14"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="14"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="14"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="14"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="14"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="14"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="14"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="14"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="14"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="14"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="14"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="14"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="14"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="14"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="14"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="14"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="14"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="14"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="14"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="14"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="14"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="14"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:ACO16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="5" width="23.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <f>'загальна вартість'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="2:769" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="2:769" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
+        <f>C5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="26"/>
+      <c r="BH5" s="26"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="26"/>
+      <c r="BK5" s="26"/>
+      <c r="BL5" s="26"/>
+      <c r="BM5" s="26"/>
+      <c r="BN5" s="26"/>
+      <c r="BO5" s="26"/>
+      <c r="BP5" s="26"/>
+      <c r="BQ5" s="26"/>
+      <c r="BR5" s="26"/>
+      <c r="BS5" s="26"/>
+      <c r="BT5" s="26"/>
+      <c r="BU5" s="26"/>
+      <c r="BV5" s="26"/>
+      <c r="BW5" s="26"/>
+      <c r="BX5" s="26"/>
+      <c r="BY5" s="26"/>
+      <c r="BZ5" s="26"/>
+      <c r="CA5" s="26"/>
+      <c r="CB5" s="26"/>
+      <c r="CC5" s="26"/>
+      <c r="CD5" s="26"/>
+      <c r="CE5" s="26"/>
+      <c r="CF5" s="26"/>
+      <c r="CG5" s="26"/>
+      <c r="CH5" s="26"/>
+      <c r="CI5" s="26"/>
+      <c r="CJ5" s="26"/>
+      <c r="CK5" s="26"/>
+      <c r="CL5" s="26"/>
+      <c r="CM5" s="26"/>
+      <c r="CN5" s="26"/>
+      <c r="CO5" s="26"/>
+      <c r="CP5" s="26"/>
+      <c r="CQ5" s="26"/>
+      <c r="CR5" s="26"/>
+      <c r="CS5" s="26"/>
+      <c r="CT5" s="26"/>
+      <c r="CU5" s="26"/>
+      <c r="CV5" s="26"/>
+      <c r="CW5" s="26"/>
+      <c r="CX5" s="26"/>
+      <c r="CY5" s="26"/>
+      <c r="CZ5" s="26"/>
+      <c r="DA5" s="26"/>
+      <c r="DB5" s="26"/>
+      <c r="DC5" s="26"/>
+      <c r="DD5" s="26"/>
+      <c r="DE5" s="26"/>
+      <c r="DF5" s="26"/>
+      <c r="DG5" s="26"/>
+      <c r="DH5" s="26"/>
+      <c r="DI5" s="26"/>
+      <c r="DJ5" s="26"/>
+      <c r="DK5" s="26"/>
+      <c r="DL5" s="26"/>
+      <c r="DM5" s="26"/>
+      <c r="DN5" s="26"/>
+      <c r="DO5" s="26"/>
+      <c r="DP5" s="26"/>
+      <c r="DQ5" s="26"/>
+      <c r="DR5" s="26"/>
+      <c r="DS5" s="26"/>
+      <c r="DT5" s="26"/>
+      <c r="DU5" s="26"/>
+      <c r="DV5" s="26"/>
+      <c r="DW5" s="26"/>
+      <c r="DX5" s="26"/>
+      <c r="DY5" s="26"/>
+      <c r="DZ5" s="26"/>
+      <c r="EA5" s="26"/>
+      <c r="EB5" s="26"/>
+      <c r="EC5" s="26"/>
+      <c r="ED5" s="26"/>
+      <c r="EE5" s="26"/>
+      <c r="EF5" s="26"/>
+      <c r="EG5" s="26"/>
+      <c r="EH5" s="26"/>
+      <c r="EI5" s="26"/>
+      <c r="EJ5" s="26"/>
+      <c r="EK5" s="26"/>
+      <c r="EL5" s="26"/>
+      <c r="EM5" s="26"/>
+      <c r="EN5" s="26"/>
+      <c r="EO5" s="26"/>
+      <c r="EP5" s="26"/>
+      <c r="EQ5" s="26"/>
+      <c r="ER5" s="26"/>
+      <c r="ES5" s="26"/>
+      <c r="ET5" s="26"/>
+      <c r="EU5" s="26"/>
+      <c r="EV5" s="26"/>
+      <c r="EW5" s="26"/>
+      <c r="EX5" s="26"/>
+      <c r="EY5" s="26"/>
+      <c r="EZ5" s="26"/>
+      <c r="FA5" s="26"/>
+      <c r="FB5" s="26"/>
+      <c r="FC5" s="26"/>
+      <c r="FD5" s="26"/>
+      <c r="FE5" s="26"/>
+      <c r="FF5" s="26"/>
+      <c r="FG5" s="26"/>
+      <c r="FH5" s="26"/>
+      <c r="FI5" s="26"/>
+      <c r="FJ5" s="26"/>
+      <c r="FK5" s="26"/>
+      <c r="FL5" s="26"/>
+      <c r="FM5" s="26"/>
+      <c r="FN5" s="26"/>
+      <c r="FO5" s="26"/>
+      <c r="FP5" s="26"/>
+      <c r="FQ5" s="26"/>
+      <c r="FR5" s="26"/>
+      <c r="FS5" s="26"/>
+      <c r="FT5" s="26"/>
+      <c r="FU5" s="26"/>
+      <c r="FV5" s="26"/>
+      <c r="FW5" s="26"/>
+      <c r="FX5" s="26"/>
+      <c r="FY5" s="26"/>
+      <c r="FZ5" s="26"/>
+      <c r="GA5" s="26"/>
+      <c r="GB5" s="26"/>
+      <c r="GC5" s="26"/>
+      <c r="GD5" s="26"/>
+      <c r="GE5" s="26"/>
+      <c r="GF5" s="26"/>
+      <c r="GG5" s="26"/>
+      <c r="GH5" s="26"/>
+      <c r="GI5" s="26"/>
+      <c r="GJ5" s="26"/>
+      <c r="GK5" s="26"/>
+      <c r="GL5" s="26"/>
+      <c r="GM5" s="26"/>
+      <c r="GN5" s="26"/>
+      <c r="GO5" s="26"/>
+      <c r="GP5" s="26"/>
+      <c r="GQ5" s="26"/>
+      <c r="GR5" s="26"/>
+      <c r="GS5" s="26"/>
+      <c r="GT5" s="26"/>
+      <c r="GU5" s="26"/>
+      <c r="GV5" s="26"/>
+      <c r="GW5" s="26"/>
+      <c r="GX5" s="26"/>
+      <c r="GY5" s="26"/>
+      <c r="GZ5" s="26"/>
+      <c r="HA5" s="26"/>
+      <c r="HB5" s="26"/>
+      <c r="HC5" s="26"/>
+      <c r="HD5" s="26"/>
+      <c r="HE5" s="26"/>
+      <c r="HF5" s="26"/>
+      <c r="HG5" s="26"/>
+      <c r="HH5" s="26"/>
+      <c r="HI5" s="26"/>
+      <c r="HJ5" s="26"/>
+      <c r="HK5" s="26"/>
+      <c r="HL5" s="26"/>
+      <c r="HM5" s="26"/>
+      <c r="HN5" s="26"/>
+      <c r="HO5" s="26"/>
+      <c r="HP5" s="26"/>
+      <c r="HQ5" s="26"/>
+      <c r="HR5" s="26"/>
+      <c r="HS5" s="26"/>
+      <c r="HT5" s="26"/>
+      <c r="HU5" s="26"/>
+      <c r="HV5" s="26"/>
+      <c r="HW5" s="26"/>
+      <c r="HX5" s="26"/>
+      <c r="HY5" s="26"/>
+      <c r="HZ5" s="26"/>
+      <c r="IA5" s="26"/>
+      <c r="IB5" s="26"/>
+      <c r="IC5" s="26"/>
+      <c r="ID5" s="26"/>
+      <c r="IE5" s="26"/>
+      <c r="IF5" s="26"/>
+      <c r="IG5" s="26"/>
+      <c r="IH5" s="26"/>
+      <c r="II5" s="26"/>
+      <c r="IJ5" s="26"/>
+      <c r="IK5" s="26"/>
+      <c r="IL5" s="26"/>
+      <c r="IM5" s="26"/>
+      <c r="IN5" s="26"/>
+      <c r="IO5" s="26"/>
+      <c r="IP5" s="26"/>
+      <c r="IQ5" s="26"/>
+      <c r="IR5" s="26"/>
+      <c r="IS5" s="26"/>
+      <c r="IT5" s="26"/>
+      <c r="IU5" s="26"/>
+      <c r="IV5" s="26"/>
+      <c r="IW5" s="26"/>
+      <c r="IX5" s="26"/>
+      <c r="IY5" s="26"/>
+      <c r="IZ5" s="26"/>
+      <c r="JA5" s="26"/>
+      <c r="JB5" s="26"/>
+      <c r="JC5" s="26"/>
+      <c r="JD5" s="26"/>
+      <c r="JE5" s="26"/>
+      <c r="JF5" s="26"/>
+      <c r="JG5" s="26"/>
+      <c r="JH5" s="26"/>
+      <c r="JI5" s="26"/>
+      <c r="JJ5" s="26"/>
+      <c r="JK5" s="26"/>
+      <c r="JL5" s="26"/>
+      <c r="JM5" s="26"/>
+      <c r="JN5" s="26"/>
+      <c r="JO5" s="26"/>
+      <c r="JP5" s="26"/>
+      <c r="JQ5" s="26"/>
+      <c r="JR5" s="26"/>
+      <c r="JS5" s="26"/>
+      <c r="JT5" s="26"/>
+      <c r="JU5" s="26"/>
+      <c r="JV5" s="26"/>
+      <c r="JW5" s="26"/>
+      <c r="JX5" s="26"/>
+      <c r="JY5" s="26"/>
+      <c r="JZ5" s="26"/>
+      <c r="KA5" s="26"/>
+      <c r="KB5" s="26"/>
+      <c r="KC5" s="26"/>
+      <c r="KD5" s="26"/>
+      <c r="KE5" s="26"/>
+      <c r="KF5" s="26"/>
+      <c r="KG5" s="26"/>
+      <c r="KH5" s="26"/>
+      <c r="KI5" s="26"/>
+      <c r="KJ5" s="26"/>
+      <c r="KK5" s="26"/>
+      <c r="KL5" s="26"/>
+      <c r="KM5" s="26"/>
+      <c r="KN5" s="26"/>
+      <c r="KO5" s="26"/>
+      <c r="KP5" s="26"/>
+      <c r="KQ5" s="26"/>
+      <c r="KR5" s="26"/>
+      <c r="KS5" s="26"/>
+      <c r="KT5" s="26"/>
+      <c r="KU5" s="26"/>
+      <c r="KV5" s="26"/>
+      <c r="KW5" s="26"/>
+      <c r="KX5" s="26"/>
+      <c r="KY5" s="26"/>
+      <c r="KZ5" s="26"/>
+      <c r="LA5" s="26"/>
+      <c r="LB5" s="26"/>
+      <c r="LC5" s="26"/>
+      <c r="LD5" s="26"/>
+      <c r="LE5" s="26"/>
+      <c r="LF5" s="26"/>
+      <c r="LG5" s="26"/>
+      <c r="LH5" s="26"/>
+      <c r="LI5" s="26"/>
+      <c r="LJ5" s="26"/>
+      <c r="LK5" s="26"/>
+      <c r="LL5" s="26"/>
+      <c r="LM5" s="26"/>
+      <c r="LN5" s="26"/>
+      <c r="LO5" s="26"/>
+      <c r="LP5" s="26"/>
+      <c r="LQ5" s="26"/>
+      <c r="LR5" s="26"/>
+      <c r="LS5" s="26"/>
+      <c r="LT5" s="26"/>
+      <c r="LU5" s="26"/>
+      <c r="LV5" s="26"/>
+      <c r="LW5" s="26"/>
+      <c r="LX5" s="26"/>
+      <c r="LY5" s="26"/>
+      <c r="LZ5" s="26"/>
+      <c r="MA5" s="26"/>
+      <c r="MB5" s="26"/>
+      <c r="MC5" s="26"/>
+      <c r="MD5" s="26"/>
+      <c r="ME5" s="26"/>
+      <c r="MF5" s="26"/>
+      <c r="MG5" s="26"/>
+      <c r="MH5" s="26"/>
+      <c r="MI5" s="26"/>
+      <c r="MJ5" s="26"/>
+      <c r="MK5" s="26"/>
+      <c r="ML5" s="26"/>
+      <c r="MM5" s="26"/>
+      <c r="MN5" s="26"/>
+      <c r="MO5" s="26"/>
+      <c r="MP5" s="26"/>
+      <c r="MQ5" s="26"/>
+      <c r="MR5" s="26"/>
+      <c r="MS5" s="26"/>
+      <c r="MT5" s="26"/>
+      <c r="MU5" s="26"/>
+      <c r="MV5" s="26"/>
+      <c r="MW5" s="26"/>
+      <c r="MX5" s="26"/>
+      <c r="MY5" s="26"/>
+      <c r="MZ5" s="26"/>
+      <c r="NA5" s="26"/>
+      <c r="NB5" s="26"/>
+      <c r="NC5" s="26"/>
+      <c r="ND5" s="26"/>
+      <c r="NE5" s="26"/>
+      <c r="NF5" s="26"/>
+      <c r="NG5" s="26"/>
+      <c r="NH5" s="26"/>
+      <c r="NI5" s="26"/>
+      <c r="NJ5" s="26"/>
+      <c r="NK5" s="26"/>
+      <c r="NL5" s="26"/>
+      <c r="NM5" s="26"/>
+      <c r="NN5" s="26"/>
+      <c r="NO5" s="26"/>
+      <c r="NP5" s="26"/>
+      <c r="NQ5" s="26"/>
+      <c r="NR5" s="26"/>
+      <c r="NS5" s="26"/>
+      <c r="NT5" s="26"/>
+      <c r="NU5" s="26"/>
+      <c r="NV5" s="26"/>
+      <c r="NW5" s="26"/>
+      <c r="NX5" s="26"/>
+      <c r="NY5" s="26"/>
+      <c r="NZ5" s="26"/>
+      <c r="OA5" s="26"/>
+      <c r="OB5" s="26"/>
+      <c r="OC5" s="26"/>
+      <c r="OD5" s="26"/>
+      <c r="OE5" s="26"/>
+      <c r="OF5" s="26"/>
+      <c r="OG5" s="26"/>
+      <c r="OH5" s="26"/>
+      <c r="OI5" s="26"/>
+      <c r="OJ5" s="26"/>
+      <c r="OK5" s="26"/>
+      <c r="OL5" s="26"/>
+      <c r="OM5" s="26"/>
+      <c r="ON5" s="26"/>
+      <c r="OO5" s="26"/>
+      <c r="OP5" s="26"/>
+      <c r="OQ5" s="26"/>
+      <c r="OR5" s="26"/>
+      <c r="OS5" s="26"/>
+      <c r="OT5" s="26"/>
+      <c r="OU5" s="26"/>
+      <c r="OV5" s="26"/>
+      <c r="OW5" s="26"/>
+      <c r="OX5" s="26"/>
+      <c r="OY5" s="26"/>
+      <c r="OZ5" s="26"/>
+      <c r="PA5" s="26"/>
+      <c r="PB5" s="26"/>
+      <c r="PC5" s="26"/>
+      <c r="PD5" s="26"/>
+      <c r="PE5" s="26"/>
+      <c r="PF5" s="26"/>
+      <c r="PG5" s="26"/>
+      <c r="PH5" s="26"/>
+      <c r="PI5" s="26"/>
+      <c r="PJ5" s="26"/>
+      <c r="PK5" s="26"/>
+      <c r="PL5" s="26"/>
+      <c r="PM5" s="26"/>
+      <c r="PN5" s="26"/>
+      <c r="PO5" s="26"/>
+      <c r="PP5" s="26"/>
+      <c r="PQ5" s="26"/>
+      <c r="PR5" s="26"/>
+      <c r="PS5" s="26"/>
+      <c r="PT5" s="26"/>
+      <c r="PU5" s="26"/>
+      <c r="PV5" s="26"/>
+      <c r="PW5" s="26"/>
+      <c r="PX5" s="26"/>
+      <c r="PY5" s="26"/>
+      <c r="PZ5" s="26"/>
+      <c r="QA5" s="26"/>
+      <c r="QB5" s="26"/>
+      <c r="QC5" s="26"/>
+      <c r="QD5" s="26"/>
+      <c r="QE5" s="26"/>
+      <c r="QF5" s="26"/>
+      <c r="QG5" s="26"/>
+      <c r="QH5" s="26"/>
+      <c r="QI5" s="26"/>
+      <c r="QJ5" s="26"/>
+      <c r="QK5" s="26"/>
+      <c r="QL5" s="26"/>
+      <c r="QM5" s="26"/>
+      <c r="QN5" s="26"/>
+      <c r="QO5" s="26"/>
+      <c r="QP5" s="26"/>
+      <c r="QQ5" s="26"/>
+      <c r="QR5" s="26"/>
+      <c r="QS5" s="26"/>
+      <c r="QT5" s="26"/>
+      <c r="QU5" s="26"/>
+      <c r="QV5" s="26"/>
+      <c r="QW5" s="26"/>
+      <c r="QX5" s="26"/>
+      <c r="QY5" s="26"/>
+      <c r="QZ5" s="26"/>
+      <c r="RA5" s="26"/>
+      <c r="RB5" s="26"/>
+      <c r="RC5" s="26"/>
+      <c r="RD5" s="26"/>
+      <c r="RE5" s="26"/>
+      <c r="RF5" s="26"/>
+      <c r="RG5" s="26"/>
+      <c r="RH5" s="26"/>
+      <c r="RI5" s="26"/>
+      <c r="RJ5" s="26"/>
+      <c r="RK5" s="26"/>
+      <c r="RL5" s="26"/>
+      <c r="RM5" s="26"/>
+      <c r="RN5" s="26"/>
+      <c r="RO5" s="26"/>
+      <c r="RP5" s="26"/>
+      <c r="RQ5" s="26"/>
+      <c r="RR5" s="26"/>
+      <c r="RS5" s="26"/>
+      <c r="RT5" s="26"/>
+      <c r="RU5" s="26"/>
+      <c r="RV5" s="26"/>
+      <c r="RW5" s="26"/>
+      <c r="RX5" s="26"/>
+      <c r="RY5" s="26"/>
+      <c r="RZ5" s="26"/>
+      <c r="SA5" s="26"/>
+      <c r="SB5" s="26"/>
+      <c r="SC5" s="26"/>
+      <c r="SD5" s="26"/>
+      <c r="SE5" s="26"/>
+      <c r="SF5" s="26"/>
+      <c r="SG5" s="26"/>
+      <c r="SH5" s="26"/>
+      <c r="SI5" s="26"/>
+      <c r="SJ5" s="26"/>
+      <c r="SK5" s="26"/>
+      <c r="SL5" s="26"/>
+      <c r="SM5" s="26"/>
+      <c r="SN5" s="26"/>
+      <c r="SO5" s="26"/>
+      <c r="SP5" s="26"/>
+      <c r="SQ5" s="26"/>
+      <c r="SR5" s="26"/>
+      <c r="SS5" s="26"/>
+      <c r="ST5" s="26"/>
+      <c r="SU5" s="26"/>
+      <c r="SV5" s="26"/>
+      <c r="SW5" s="26"/>
+      <c r="SX5" s="26"/>
+      <c r="SY5" s="26"/>
+      <c r="SZ5" s="26"/>
+      <c r="TA5" s="26"/>
+      <c r="TB5" s="26"/>
+      <c r="TC5" s="26"/>
+      <c r="TD5" s="26"/>
+      <c r="TE5" s="26"/>
+      <c r="TF5" s="26"/>
+      <c r="TG5" s="26"/>
+      <c r="TH5" s="26"/>
+      <c r="TI5" s="26"/>
+      <c r="TJ5" s="26"/>
+      <c r="TK5" s="26"/>
+      <c r="TL5" s="26"/>
+      <c r="TM5" s="26"/>
+      <c r="TN5" s="26"/>
+      <c r="TO5" s="26"/>
+      <c r="TP5" s="26"/>
+      <c r="TQ5" s="26"/>
+      <c r="TR5" s="26"/>
+      <c r="TS5" s="26"/>
+      <c r="TT5" s="26"/>
+      <c r="TU5" s="26"/>
+      <c r="TV5" s="26"/>
+      <c r="TW5" s="26"/>
+      <c r="TX5" s="26"/>
+      <c r="TY5" s="26"/>
+      <c r="TZ5" s="26"/>
+      <c r="UA5" s="26"/>
+      <c r="UB5" s="26"/>
+      <c r="UC5" s="26"/>
+      <c r="UD5" s="26"/>
+      <c r="UE5" s="26"/>
+      <c r="UF5" s="26"/>
+      <c r="UG5" s="26"/>
+      <c r="UH5" s="26"/>
+      <c r="UI5" s="26"/>
+      <c r="UJ5" s="26"/>
+      <c r="UK5" s="26"/>
+      <c r="UL5" s="26"/>
+      <c r="UM5" s="26"/>
+      <c r="UN5" s="26"/>
+      <c r="UO5" s="26"/>
+      <c r="UP5" s="26"/>
+      <c r="UQ5" s="26"/>
+      <c r="UR5" s="26"/>
+      <c r="US5" s="26"/>
+      <c r="UT5" s="26"/>
+      <c r="UU5" s="26"/>
+      <c r="UV5" s="26"/>
+      <c r="UW5" s="26"/>
+      <c r="UX5" s="26"/>
+      <c r="UY5" s="26"/>
+      <c r="UZ5" s="26"/>
+      <c r="VA5" s="26"/>
+      <c r="VB5" s="26"/>
+      <c r="VC5" s="26"/>
+      <c r="VD5" s="26"/>
+      <c r="VE5" s="26"/>
+      <c r="VF5" s="26"/>
+      <c r="VG5" s="26"/>
+      <c r="VH5" s="26"/>
+      <c r="VI5" s="26"/>
+      <c r="VJ5" s="26"/>
+      <c r="VK5" s="26"/>
+      <c r="VL5" s="26"/>
+      <c r="VM5" s="26"/>
+      <c r="VN5" s="26"/>
+      <c r="VO5" s="26"/>
+      <c r="VP5" s="26"/>
+      <c r="VQ5" s="26"/>
+      <c r="VR5" s="26"/>
+      <c r="VS5" s="26"/>
+      <c r="VT5" s="26"/>
+      <c r="VU5" s="26"/>
+      <c r="VV5" s="26"/>
+      <c r="VW5" s="26"/>
+      <c r="VX5" s="26"/>
+      <c r="VY5" s="26"/>
+      <c r="VZ5" s="26"/>
+      <c r="WA5" s="26"/>
+      <c r="WB5" s="26"/>
+      <c r="WC5" s="26"/>
+      <c r="WD5" s="26"/>
+      <c r="WE5" s="26"/>
+      <c r="WF5" s="26"/>
+      <c r="WG5" s="26"/>
+      <c r="WH5" s="26"/>
+      <c r="WI5" s="26"/>
+      <c r="WJ5" s="26"/>
+      <c r="WK5" s="26"/>
+      <c r="WL5" s="26"/>
+      <c r="WM5" s="26"/>
+      <c r="WN5" s="26"/>
+      <c r="WO5" s="26"/>
+      <c r="WP5" s="26"/>
+      <c r="WQ5" s="26"/>
+      <c r="WR5" s="26"/>
+      <c r="WS5" s="26"/>
+      <c r="WT5" s="26"/>
+      <c r="WU5" s="26"/>
+      <c r="WV5" s="26"/>
+      <c r="WW5" s="26"/>
+      <c r="WX5" s="26"/>
+      <c r="WY5" s="26"/>
+      <c r="WZ5" s="26"/>
+      <c r="XA5" s="26"/>
+      <c r="XB5" s="26"/>
+      <c r="XC5" s="26"/>
+      <c r="XD5" s="26"/>
+      <c r="XE5" s="26"/>
+      <c r="XF5" s="26"/>
+      <c r="XG5" s="26"/>
+      <c r="XH5" s="26"/>
+      <c r="XI5" s="26"/>
+      <c r="XJ5" s="26"/>
+      <c r="XK5" s="26"/>
+      <c r="XL5" s="26"/>
+      <c r="XM5" s="26"/>
+      <c r="XN5" s="26"/>
+      <c r="XO5" s="26"/>
+      <c r="XP5" s="26"/>
+      <c r="XQ5" s="26"/>
+      <c r="XR5" s="26"/>
+      <c r="XS5" s="26"/>
+      <c r="XT5" s="26"/>
+      <c r="XU5" s="26"/>
+      <c r="XV5" s="26"/>
+      <c r="XW5" s="26"/>
+      <c r="XX5" s="26"/>
+      <c r="XY5" s="26"/>
+      <c r="XZ5" s="26"/>
+      <c r="YA5" s="26"/>
+      <c r="YB5" s="26"/>
+      <c r="YC5" s="26"/>
+      <c r="YD5" s="26"/>
+      <c r="YE5" s="26"/>
+      <c r="YF5" s="26"/>
+      <c r="YG5" s="26"/>
+      <c r="YH5" s="26"/>
+      <c r="YI5" s="26"/>
+      <c r="YJ5" s="26"/>
+      <c r="YK5" s="26"/>
+      <c r="YL5" s="26"/>
+      <c r="YM5" s="26"/>
+      <c r="YN5" s="26"/>
+      <c r="YO5" s="26"/>
+      <c r="YP5" s="26"/>
+      <c r="YQ5" s="26"/>
+      <c r="YR5" s="26"/>
+      <c r="YS5" s="26"/>
+      <c r="YT5" s="26"/>
+      <c r="YU5" s="26"/>
+      <c r="YV5" s="26"/>
+      <c r="YW5" s="26"/>
+      <c r="YX5" s="26"/>
+      <c r="YY5" s="26"/>
+      <c r="YZ5" s="26"/>
+      <c r="ZA5" s="26"/>
+      <c r="ZB5" s="26"/>
+      <c r="ZC5" s="26"/>
+      <c r="ZD5" s="26"/>
+      <c r="ZE5" s="26"/>
+      <c r="ZF5" s="26"/>
+      <c r="ZG5" s="26"/>
+      <c r="ZH5" s="26"/>
+      <c r="ZI5" s="26"/>
+      <c r="ZJ5" s="26"/>
+      <c r="ZK5" s="26"/>
+      <c r="ZL5" s="26"/>
+      <c r="ZM5" s="26"/>
+      <c r="ZN5" s="26"/>
+      <c r="ZO5" s="26"/>
+      <c r="ZP5" s="26"/>
+      <c r="ZQ5" s="26"/>
+      <c r="ZR5" s="26"/>
+      <c r="ZS5" s="26"/>
+      <c r="ZT5" s="26"/>
+      <c r="ZU5" s="26"/>
+      <c r="ZV5" s="26"/>
+      <c r="ZW5" s="26"/>
+      <c r="ZX5" s="26"/>
+      <c r="ZY5" s="26"/>
+      <c r="ZZ5" s="26"/>
+      <c r="AAA5" s="26"/>
+      <c r="AAB5" s="26"/>
+      <c r="AAC5" s="26"/>
+      <c r="AAD5" s="26"/>
+      <c r="AAE5" s="26"/>
+      <c r="AAF5" s="26"/>
+      <c r="AAG5" s="26"/>
+      <c r="AAH5" s="26"/>
+      <c r="AAI5" s="26"/>
+      <c r="AAJ5" s="26"/>
+      <c r="AAK5" s="26"/>
+      <c r="AAL5" s="26"/>
+      <c r="AAM5" s="26"/>
+      <c r="AAN5" s="26"/>
+      <c r="AAO5" s="26"/>
+      <c r="AAP5" s="26"/>
+      <c r="AAQ5" s="26"/>
+      <c r="AAR5" s="26"/>
+      <c r="AAS5" s="26"/>
+      <c r="AAT5" s="26"/>
+      <c r="AAU5" s="26"/>
+      <c r="AAV5" s="26"/>
+      <c r="AAW5" s="26"/>
+      <c r="AAX5" s="26"/>
+      <c r="AAY5" s="26"/>
+      <c r="AAZ5" s="26"/>
+      <c r="ABA5" s="26"/>
+      <c r="ABB5" s="26"/>
+      <c r="ABC5" s="26"/>
+      <c r="ABD5" s="26"/>
+      <c r="ABE5" s="26"/>
+      <c r="ABF5" s="26"/>
+      <c r="ABG5" s="26"/>
+      <c r="ABH5" s="26"/>
+      <c r="ABI5" s="26"/>
+      <c r="ABJ5" s="26"/>
+      <c r="ABK5" s="26"/>
+      <c r="ABL5" s="26"/>
+      <c r="ABM5" s="26"/>
+      <c r="ABN5" s="26"/>
+      <c r="ABO5" s="26"/>
+      <c r="ABP5" s="26"/>
+      <c r="ABQ5" s="26"/>
+      <c r="ABR5" s="26"/>
+      <c r="ABS5" s="26"/>
+      <c r="ABT5" s="26"/>
+      <c r="ABU5" s="26"/>
+      <c r="ABV5" s="26"/>
+      <c r="ABW5" s="26"/>
+      <c r="ABX5" s="26"/>
+      <c r="ABY5" s="26"/>
+      <c r="ABZ5" s="26"/>
+      <c r="ACA5" s="26"/>
+      <c r="ACB5" s="26"/>
+      <c r="ACC5" s="26"/>
+      <c r="ACD5" s="26"/>
+      <c r="ACE5" s="26"/>
+      <c r="ACF5" s="26"/>
+      <c r="ACG5" s="26"/>
+      <c r="ACH5" s="26"/>
+      <c r="ACI5" s="26"/>
+      <c r="ACJ5" s="26"/>
+      <c r="ACK5" s="26"/>
+      <c r="ACL5" s="26"/>
+      <c r="ACM5" s="26"/>
+      <c r="ACN5" s="26"/>
+      <c r="ACO5" s="26"/>
+    </row>
+    <row r="6" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>